--- a/dataanalysis/data/predictions/1400/09261436_1437.xlsx
+++ b/dataanalysis/data/predictions/1400/09261436_1437.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="117">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-26</t>
   </si>
   <si>
@@ -362,12 +365,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -725,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,19 +831,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300111</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-16</v>
@@ -864,7 +864,7 @@
         <v>260933.27</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -906,10 +906,25 @@
         <v>-3.54</v>
       </c>
       <c r="X2" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y2">
+        <v>-4.21</v>
+      </c>
+      <c r="Z2">
+        <v>8.08</v>
+      </c>
+      <c r="AA2">
+        <v>6.88</v>
       </c>
       <c r="AC2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -917,22 +932,25 @@
       <c r="AG2">
         <v>4.84406042098999</v>
       </c>
-      <c r="AH2" t="s">
-        <v>116</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300115</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-4.59</v>
@@ -950,7 +968,7 @@
         <v>574767.21</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -992,10 +1010,25 @@
         <v>-1.11</v>
       </c>
       <c r="X3" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="Y3">
+        <v>10.47</v>
+      </c>
+      <c r="Z3">
+        <v>42.2</v>
+      </c>
+      <c r="AA3">
+        <v>12.23</v>
       </c>
       <c r="AC3" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1003,22 +1036,25 @@
       <c r="AG3">
         <v>3.267012596130371</v>
       </c>
-      <c r="AH3" t="s">
-        <v>116</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300207</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>1.28</v>
@@ -1036,7 +1072,7 @@
         <v>393353.5</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>16</v>
@@ -1078,10 +1114,25 @@
         <v>0.18</v>
       </c>
       <c r="X4" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y4">
+        <v>2.01</v>
+      </c>
+      <c r="Z4">
+        <v>35.94</v>
+      </c>
+      <c r="AA4">
+        <v>5.77</v>
       </c>
       <c r="AC4" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1089,22 +1140,25 @@
       <c r="AG4">
         <v>2.749357461929321</v>
       </c>
-      <c r="AH4" t="s">
-        <v>116</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300236</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-4.81</v>
@@ -1122,7 +1176,7 @@
         <v>104450.1</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1164,10 +1218,25 @@
         <v>-0.14</v>
       </c>
       <c r="X5" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y5">
+        <v>-1.33</v>
+      </c>
+      <c r="Z5">
+        <v>63.79</v>
+      </c>
+      <c r="AA5">
+        <v>1.69</v>
       </c>
       <c r="AC5" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1175,22 +1244,25 @@
       <c r="AG5">
         <v>-2.798502922058105</v>
       </c>
-      <c r="AH5" t="s">
-        <v>116</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300270</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-6.22</v>
@@ -1208,7 +1280,7 @@
         <v>51539.63</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1250,10 +1322,25 @@
         <v>0.8</v>
       </c>
       <c r="X6" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="Y6">
+        <v>-5.98</v>
+      </c>
+      <c r="Z6">
+        <v>11.2</v>
+      </c>
+      <c r="AA6">
+        <v>3.23</v>
       </c>
       <c r="AC6" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1261,22 +1348,25 @@
       <c r="AG6">
         <v>2.916485548019409</v>
       </c>
-      <c r="AH6" t="s">
-        <v>116</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300274</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>-1.28</v>
@@ -1294,7 +1384,7 @@
         <v>1311781.48</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7">
         <v>18</v>
@@ -1336,10 +1426,25 @@
         <v>-0.28</v>
       </c>
       <c r="X7" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y7">
+        <v>4.76</v>
+      </c>
+      <c r="Z7">
+        <v>169.8</v>
+      </c>
+      <c r="AA7">
+        <v>7.6</v>
       </c>
       <c r="AC7" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1347,22 +1452,25 @@
       <c r="AG7">
         <v>8.94868278503418</v>
       </c>
-      <c r="AH7" t="s">
-        <v>116</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300421</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2.38</v>
@@ -1380,7 +1488,7 @@
         <v>110060.35</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1422,10 +1530,25 @@
         <v>0.04</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y8">
+        <v>-2.64</v>
+      </c>
+      <c r="Z8">
+        <v>20.01</v>
+      </c>
+      <c r="AA8">
+        <v>1.32</v>
       </c>
       <c r="AC8" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1433,22 +1556,25 @@
       <c r="AG8">
         <v>1.482969999313354</v>
       </c>
-      <c r="AH8" t="s">
-        <v>116</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300432</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-1.09</v>
@@ -1466,7 +1592,7 @@
         <v>230782.49</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1508,10 +1634,25 @@
         <v>-0.09</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y9">
+        <v>6.68</v>
+      </c>
+      <c r="Z9">
+        <v>18.86</v>
+      </c>
+      <c r="AA9">
+        <v>9.02</v>
       </c>
       <c r="AC9" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1519,22 +1660,25 @@
       <c r="AG9">
         <v>18.69897270202637</v>
       </c>
-      <c r="AH9" t="s">
-        <v>116</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300450</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-3.18</v>
@@ -1552,7 +1696,7 @@
         <v>1069176.83</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10">
         <v>21</v>
@@ -1594,10 +1738,25 @@
         <v>-0.58</v>
       </c>
       <c r="X10" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y10">
+        <v>-3.59</v>
+      </c>
+      <c r="Z10">
+        <v>68</v>
+      </c>
+      <c r="AA10">
+        <v>7.94</v>
       </c>
       <c r="AC10" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1605,22 +1764,25 @@
       <c r="AG10">
         <v>-0.02841073833405972</v>
       </c>
-      <c r="AH10" t="s">
-        <v>116</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300457</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>4.41</v>
@@ -1638,7 +1800,7 @@
         <v>205620.61</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11">
         <v>19</v>
@@ -1680,10 +1842,25 @@
         <v>0.5</v>
       </c>
       <c r="X11" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y11">
+        <v>-2.1</v>
+      </c>
+      <c r="Z11">
+        <v>39.49</v>
+      </c>
+      <c r="AA11">
+        <v>8.369999999999999</v>
       </c>
       <c r="AC11" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1691,22 +1868,25 @@
       <c r="AG11">
         <v>3.256611824035645</v>
       </c>
-      <c r="AH11" t="s">
-        <v>116</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300490</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>14.89</v>
@@ -1724,7 +1904,7 @@
         <v>114532.61</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1766,10 +1946,25 @@
         <v>2.21</v>
       </c>
       <c r="X12" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y12">
+        <v>3.9</v>
+      </c>
+      <c r="Z12">
+        <v>13.55</v>
+      </c>
+      <c r="AA12">
+        <v>8.4</v>
       </c>
       <c r="AC12" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1777,22 +1972,25 @@
       <c r="AG12">
         <v>5.532130718231201</v>
       </c>
-      <c r="AH12" t="s">
-        <v>116</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300502</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-0.91</v>
@@ -1810,7 +2008,7 @@
         <v>1312690.89</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1852,10 +2050,25 @@
         <v>0.01</v>
       </c>
       <c r="X13" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y13">
+        <v>3.82</v>
+      </c>
+      <c r="Z13">
+        <v>398.6</v>
+      </c>
+      <c r="AA13">
+        <v>6.99</v>
       </c>
       <c r="AC13" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1863,22 +2076,25 @@
       <c r="AG13">
         <v>0.4822447896003723</v>
       </c>
-      <c r="AH13" t="s">
-        <v>116</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300539</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.43</v>
@@ -1896,7 +2112,7 @@
         <v>49272.21</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14">
         <v>16</v>
@@ -1938,10 +2154,25 @@
         <v>0.32</v>
       </c>
       <c r="X14" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y14">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>48.42</v>
+      </c>
+      <c r="AA14">
+        <v>1.64</v>
       </c>
       <c r="AC14" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1949,22 +2180,25 @@
       <c r="AG14">
         <v>8.27950382232666</v>
       </c>
-      <c r="AH14" t="s">
-        <v>116</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300604</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-2.33</v>
@@ -1982,7 +2216,7 @@
         <v>858581.45</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15">
         <v>23</v>
@@ -2024,10 +2258,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X15" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y15">
+        <v>8.91</v>
+      </c>
+      <c r="Z15">
+        <v>106.99</v>
+      </c>
+      <c r="AA15">
+        <v>15.8</v>
       </c>
       <c r="AC15" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2035,22 +2284,25 @@
       <c r="AG15">
         <v>5.202847957611084</v>
       </c>
-      <c r="AH15" t="s">
-        <v>116</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300650</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-1.59</v>
@@ -2068,7 +2320,7 @@
         <v>85805.19</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2110,10 +2362,25 @@
         <v>-3.52</v>
       </c>
       <c r="X16" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y16">
+        <v>4.82</v>
+      </c>
+      <c r="Z16">
+        <v>22</v>
+      </c>
+      <c r="AA16">
+        <v>7.84</v>
       </c>
       <c r="AC16" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2121,22 +2388,25 @@
       <c r="AG16">
         <v>12.00748443603516</v>
       </c>
-      <c r="AH16" t="s">
-        <v>116</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300666</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>3.94</v>
@@ -2154,7 +2424,7 @@
         <v>375565.85</v>
       </c>
       <c r="J17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2196,10 +2466,25 @@
         <v>0.73</v>
       </c>
       <c r="X17" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y17">
+        <v>1.96</v>
+      </c>
+      <c r="Z17">
+        <v>110.29</v>
+      </c>
+      <c r="AA17">
+        <v>6.01</v>
       </c>
       <c r="AC17" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2207,22 +2492,25 @@
       <c r="AG17">
         <v>3.760304689407349</v>
       </c>
-      <c r="AH17" t="s">
-        <v>116</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300680</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.02</v>
@@ -2240,7 +2528,7 @@
         <v>131211.58</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -2282,10 +2570,25 @@
         <v>0.2</v>
       </c>
       <c r="X18" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y18">
+        <v>0.65</v>
+      </c>
+      <c r="Z18">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="AA18">
+        <v>1.92</v>
       </c>
       <c r="AC18" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2293,22 +2596,25 @@
       <c r="AG18">
         <v>4.889006614685059</v>
       </c>
-      <c r="AH18" t="s">
-        <v>116</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300686</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-3.04</v>
@@ -2326,7 +2632,7 @@
         <v>39907.34</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -2368,10 +2674,25 @@
         <v>-0.87</v>
       </c>
       <c r="X19" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y19">
+        <v>-1.28</v>
+      </c>
+      <c r="Z19">
+        <v>15.74</v>
+      </c>
+      <c r="AA19">
+        <v>0.83</v>
       </c>
       <c r="AC19" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2379,22 +2700,25 @@
       <c r="AG19">
         <v>3.199018239974976</v>
       </c>
-      <c r="AH19" t="s">
-        <v>116</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300774</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>10.6</v>
@@ -2412,7 +2736,7 @@
         <v>49621.05</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2453,8 +2777,23 @@
       <c r="W20">
         <v>1.05</v>
       </c>
+      <c r="Y20">
+        <v>-2.14</v>
+      </c>
+      <c r="Z20">
+        <v>12.76</v>
+      </c>
+      <c r="AA20">
+        <v>1.11</v>
+      </c>
       <c r="AC20" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2462,22 +2801,25 @@
       <c r="AG20">
         <v>1.739707112312317</v>
       </c>
-      <c r="AH20" t="s">
-        <v>116</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300959</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-9.699999999999999</v>
@@ -2495,7 +2837,7 @@
         <v>97567.12</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -2537,10 +2879,25 @@
         <v>1.16</v>
       </c>
       <c r="X21" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y21">
+        <v>11.9</v>
+      </c>
+      <c r="Z21">
+        <v>89</v>
+      </c>
+      <c r="AA21">
+        <v>17.51</v>
       </c>
       <c r="AC21" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>1</v>
@@ -2548,22 +2905,25 @@
       <c r="AG21">
         <v>18.10482788085938</v>
       </c>
-      <c r="AH21" t="s">
-        <v>117</v>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300969</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-5.82</v>
@@ -2581,7 +2941,7 @@
         <v>50907.29</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -2623,10 +2983,25 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="X22" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y22">
+        <v>1.79</v>
+      </c>
+      <c r="Z22">
+        <v>131.88</v>
+      </c>
+      <c r="AA22">
+        <v>1.96</v>
       </c>
       <c r="AC22" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2634,22 +3009,25 @@
       <c r="AG22">
         <v>1.229626297950745</v>
       </c>
-      <c r="AH22" t="s">
-        <v>116</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>301013</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>9.18</v>
@@ -2667,7 +3045,7 @@
         <v>174913.5</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -2709,10 +3087,25 @@
         <v>2.08</v>
       </c>
       <c r="X23" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y23">
+        <v>5.56</v>
+      </c>
+      <c r="Z23">
+        <v>32.03</v>
+      </c>
+      <c r="AA23">
+        <v>9.880000000000001</v>
       </c>
       <c r="AC23" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2720,22 +3113,25 @@
       <c r="AG23">
         <v>1.789944171905518</v>
       </c>
-      <c r="AH23" t="s">
-        <v>116</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>301308</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-2.36</v>
@@ -2753,7 +3149,7 @@
         <v>210144.09</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2795,10 +3191,25 @@
         <v>-0.47</v>
       </c>
       <c r="X24" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y24">
+        <v>5.22</v>
+      </c>
+      <c r="Z24">
+        <v>149.6</v>
+      </c>
+      <c r="AA24">
+        <v>6.48</v>
       </c>
       <c r="AC24" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2806,22 +3217,25 @@
       <c r="AG24">
         <v>-0.07317712903022766</v>
       </c>
-      <c r="AH24" t="s">
-        <v>116</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>301319</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.3</v>
@@ -2839,7 +3253,7 @@
         <v>41980.72</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -2881,10 +3295,25 @@
         <v>-0.34</v>
       </c>
       <c r="X25" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y25">
+        <v>1.2</v>
+      </c>
+      <c r="Z25">
+        <v>48.67</v>
+      </c>
+      <c r="AA25">
+        <v>3.22</v>
       </c>
       <c r="AC25" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2892,22 +3321,25 @@
       <c r="AG25">
         <v>0.5333387851715088</v>
       </c>
-      <c r="AH25" t="s">
-        <v>116</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>301326</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-5.58</v>
@@ -2925,7 +3357,7 @@
         <v>67320.00999999999</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2966,8 +3398,23 @@
       <c r="W26">
         <v>-0.52</v>
       </c>
+      <c r="Y26">
+        <v>-1.71</v>
+      </c>
+      <c r="Z26">
+        <v>128.9</v>
+      </c>
+      <c r="AA26">
+        <v>1.5</v>
+      </c>
       <c r="AC26" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2975,22 +3422,25 @@
       <c r="AG26">
         <v>2.635798215866089</v>
       </c>
-      <c r="AH26" t="s">
-        <v>116</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301421</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-6.76</v>
@@ -3008,7 +3458,7 @@
         <v>173628.06</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -3050,10 +3500,25 @@
         <v>-1.72</v>
       </c>
       <c r="X27" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="Y27">
+        <v>4.06</v>
+      </c>
+      <c r="Z27">
+        <v>121.96</v>
+      </c>
+      <c r="AA27">
+        <v>4.68</v>
       </c>
       <c r="AC27" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3061,22 +3526,25 @@
       <c r="AG27">
         <v>2.924719572067261</v>
       </c>
-      <c r="AH27" t="s">
-        <v>116</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>688028</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-3.34</v>
@@ -3094,7 +3562,7 @@
         <v>40789.02</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28">
         <v>15</v>
@@ -3136,10 +3604,25 @@
         <v>0.28</v>
       </c>
       <c r="X28" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y28">
+        <v>-3.72</v>
+      </c>
+      <c r="Z28">
+        <v>55.34</v>
+      </c>
+      <c r="AA28">
+        <v>5.21</v>
       </c>
       <c r="AC28" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3147,22 +3630,25 @@
       <c r="AG28">
         <v>13.59062480926514</v>
       </c>
-      <c r="AH28" t="s">
-        <v>116</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>688041</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-3.24</v>
@@ -3180,7 +3666,7 @@
         <v>803667.92</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3222,10 +3708,25 @@
         <v>-0.1</v>
       </c>
       <c r="X29" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y29">
+        <v>-1.26</v>
+      </c>
+      <c r="Z29">
+        <v>259.88</v>
+      </c>
+      <c r="AA29">
+        <v>0.24</v>
       </c>
       <c r="AC29" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3233,22 +3734,25 @@
       <c r="AG29">
         <v>155.0854187011719</v>
       </c>
-      <c r="AH29" t="s">
-        <v>116</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688123</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>6.18</v>
@@ -3266,7 +3770,7 @@
         <v>298361.47</v>
       </c>
       <c r="J30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3308,10 +3812,25 @@
         <v>0.26</v>
       </c>
       <c r="X30" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y30">
+        <v>3.52</v>
+      </c>
+      <c r="Z30">
+        <v>148.62</v>
+      </c>
+      <c r="AA30">
+        <v>6.07</v>
       </c>
       <c r="AC30" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3319,22 +3838,25 @@
       <c r="AG30">
         <v>4.013880729675293</v>
       </c>
-      <c r="AH30" t="s">
-        <v>116</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688141</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-3.93</v>
@@ -3352,7 +3874,7 @@
         <v>68959.97</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K31">
         <v>18</v>
@@ -3394,10 +3916,25 @@
         <v>-0.04</v>
       </c>
       <c r="X31" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y31">
+        <v>2.58</v>
+      </c>
+      <c r="Z31">
+        <v>59</v>
+      </c>
+      <c r="AA31">
+        <v>4.48</v>
       </c>
       <c r="AC31" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3405,22 +3942,25 @@
       <c r="AG31">
         <v>7.143023490905762</v>
       </c>
-      <c r="AH31" t="s">
-        <v>116</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>688147</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-3.35</v>
@@ -3438,7 +3978,7 @@
         <v>63536.76</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>30</v>
@@ -3480,10 +4020,25 @@
         <v>-0.24</v>
       </c>
       <c r="X32" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y32">
+        <v>7.1</v>
+      </c>
+      <c r="Z32">
+        <v>56.28</v>
+      </c>
+      <c r="AA32">
+        <v>7.16</v>
       </c>
       <c r="AC32" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3491,22 +4046,25 @@
       <c r="AG32">
         <v>-0.8581984043121338</v>
       </c>
-      <c r="AH32" t="s">
-        <v>116</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>688233</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-3.33</v>
@@ -3524,7 +4082,7 @@
         <v>85942.82000000001</v>
       </c>
       <c r="J33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3566,10 +4124,25 @@
         <v>-0.99</v>
       </c>
       <c r="X33" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y33">
+        <v>-0.22</v>
+      </c>
+      <c r="Z33">
+        <v>46.45</v>
+      </c>
+      <c r="AA33">
+        <v>3.27</v>
       </c>
       <c r="AC33" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3577,22 +4150,25 @@
       <c r="AG33">
         <v>6.265336036682129</v>
       </c>
-      <c r="AH33" t="s">
-        <v>116</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>688249</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>16.66</v>
@@ -3610,7 +4186,7 @@
         <v>493123.79</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3652,10 +4228,25 @@
         <v>0.92</v>
       </c>
       <c r="X34" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y34">
+        <v>2.34</v>
+      </c>
+      <c r="Z34">
+        <v>34.25</v>
+      </c>
+      <c r="AA34">
+        <v>4.07</v>
       </c>
       <c r="AC34" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3663,22 +4254,25 @@
       <c r="AG34">
         <v>1.983269214630127</v>
       </c>
-      <c r="AH34" t="s">
-        <v>116</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688347</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>5.69</v>
@@ -3696,7 +4290,7 @@
         <v>328417.79</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K35">
         <v>12</v>
@@ -3738,10 +4332,25 @@
         <v>0.74</v>
       </c>
       <c r="X35" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y35">
+        <v>3.37</v>
+      </c>
+      <c r="Z35">
+        <v>99</v>
+      </c>
+      <c r="AA35">
+        <v>3.64</v>
       </c>
       <c r="AC35" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3749,22 +4358,25 @@
       <c r="AG35">
         <v>5.355507850646973</v>
       </c>
-      <c r="AH35" t="s">
-        <v>116</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688392</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-4.33</v>
@@ -3782,7 +4394,7 @@
         <v>36999.16</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3823,8 +4435,23 @@
       <c r="W36">
         <v>-0.18</v>
       </c>
+      <c r="Y36">
+        <v>-1.29</v>
+      </c>
+      <c r="Z36">
+        <v>99.25</v>
+      </c>
+      <c r="AA36">
+        <v>2.45</v>
+      </c>
       <c r="AC36" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3832,22 +4459,25 @@
       <c r="AG36">
         <v>1.074219703674316</v>
       </c>
-      <c r="AH36" t="s">
-        <v>116</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688403</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>3.35</v>
@@ -3865,7 +4495,7 @@
         <v>111630.54</v>
       </c>
       <c r="J37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3907,10 +4537,25 @@
         <v>0.32</v>
       </c>
       <c r="X37" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y37">
+        <v>-0.26</v>
+      </c>
+      <c r="Z37">
+        <v>19.35</v>
+      </c>
+      <c r="AA37">
+        <v>2.87</v>
       </c>
       <c r="AC37" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3918,22 +4563,25 @@
       <c r="AG37">
         <v>0.3939051330089569</v>
       </c>
-      <c r="AH37" t="s">
-        <v>116</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688409</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-4.02</v>
@@ -3951,7 +4599,7 @@
         <v>75679.91</v>
       </c>
       <c r="J38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3992,8 +4640,23 @@
       <c r="W38">
         <v>-0.89</v>
       </c>
+      <c r="Y38">
+        <v>1.35</v>
+      </c>
+      <c r="Z38">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="AA38">
+        <v>2.65</v>
+      </c>
       <c r="AC38" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4001,22 +4664,25 @@
       <c r="AG38">
         <v>33.19940948486328</v>
       </c>
-      <c r="AH38" t="s">
-        <v>116</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688411</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-4.36</v>
@@ -4034,7 +4700,7 @@
         <v>75455.81</v>
       </c>
       <c r="J39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K39">
         <v>19</v>
@@ -4076,10 +4742,25 @@
         <v>-1.01</v>
       </c>
       <c r="X39" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y39">
+        <v>15.02</v>
+      </c>
+      <c r="Z39">
+        <v>320.44</v>
+      </c>
+      <c r="AA39">
+        <v>19.66</v>
       </c>
       <c r="AC39" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4087,22 +4768,25 @@
       <c r="AG39">
         <v>6.920702457427979</v>
       </c>
-      <c r="AH39" t="s">
-        <v>116</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688503</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>6.68</v>
@@ -4120,7 +4804,7 @@
         <v>239301.66</v>
       </c>
       <c r="J40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -4162,10 +4846,25 @@
         <v>0.27</v>
       </c>
       <c r="X40" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y40">
+        <v>3.52</v>
+      </c>
+      <c r="Z40">
+        <v>84.2</v>
+      </c>
+      <c r="AA40">
+        <v>5.45</v>
       </c>
       <c r="AC40" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4173,22 +4872,25 @@
       <c r="AG40">
         <v>4.030255317687988</v>
       </c>
-      <c r="AH40" t="s">
-        <v>116</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688525</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-0.54</v>
@@ -4206,7 +4908,7 @@
         <v>315592.76</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -4248,10 +4950,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X41" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y41">
+        <v>5.85</v>
+      </c>
+      <c r="Z41">
+        <v>96.88</v>
+      </c>
+      <c r="AA41">
+        <v>7.63</v>
       </c>
       <c r="AC41" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4259,22 +4976,25 @@
       <c r="AG41">
         <v>1.477271318435669</v>
       </c>
-      <c r="AH41" t="s">
-        <v>116</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688545</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.41</v>
@@ -4292,7 +5012,7 @@
         <v>49186.92</v>
       </c>
       <c r="J42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4334,10 +5054,25 @@
         <v>-1.4</v>
       </c>
       <c r="X42" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y42">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>40.14</v>
+      </c>
+      <c r="AA42">
+        <v>6.42</v>
       </c>
       <c r="AC42" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4345,22 +5080,25 @@
       <c r="AG42">
         <v>1.658537268638611</v>
       </c>
-      <c r="AH42" t="s">
-        <v>116</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688627</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-0.33</v>
@@ -4378,7 +5116,7 @@
         <v>89345.47</v>
       </c>
       <c r="J43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K43">
         <v>11</v>
@@ -4420,10 +5158,25 @@
         <v>-0.21</v>
       </c>
       <c r="X43" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y43">
+        <v>8.09</v>
+      </c>
+      <c r="Z43">
+        <v>190.99</v>
+      </c>
+      <c r="AA43">
+        <v>9.5</v>
       </c>
       <c r="AC43" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4431,22 +5184,25 @@
       <c r="AG43">
         <v>1.134174585342407</v>
       </c>
-      <c r="AH43" t="s">
-        <v>116</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688652</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>2.92</v>
@@ -4464,7 +5220,7 @@
         <v>84700.84</v>
       </c>
       <c r="J44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4506,10 +5262,25 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y44">
+        <v>9.18</v>
+      </c>
+      <c r="Z44">
+        <v>107.49</v>
+      </c>
+      <c r="AA44">
+        <v>9.710000000000001</v>
       </c>
       <c r="AC44" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4517,22 +5288,25 @@
       <c r="AG44">
         <v>4.88302755355835</v>
       </c>
-      <c r="AH44" t="s">
-        <v>116</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688661</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-5.76</v>
@@ -4550,7 +5324,7 @@
         <v>38969.22</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4592,10 +5366,25 @@
         <v>-0.5</v>
       </c>
       <c r="X45" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y45">
+        <v>-1.27</v>
+      </c>
+      <c r="Z45">
+        <v>52.3</v>
+      </c>
+      <c r="AA45">
+        <v>3.71</v>
       </c>
       <c r="AC45" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4603,22 +5392,25 @@
       <c r="AG45">
         <v>7.417971611022949</v>
       </c>
-      <c r="AH45" t="s">
-        <v>116</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688981</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-1.2</v>
@@ -4636,7 +5428,7 @@
         <v>1079351.91</v>
       </c>
       <c r="J46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K46">
         <v>12</v>
@@ -4678,10 +5470,25 @@
         <v>-0.34</v>
       </c>
       <c r="X46" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="Y46">
+        <v>2.84</v>
+      </c>
+      <c r="Z46">
+        <v>136.02</v>
+      </c>
+      <c r="AA46">
+        <v>2.66</v>
       </c>
       <c r="AC46" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4689,8 +5496,11 @@
       <c r="AG46">
         <v>15.08069896697998</v>
       </c>
-      <c r="AH46" t="s">
-        <v>116</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
